--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rln3-Rxfp4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rln3-Rxfp4.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.903279333333334</v>
+        <v>8.979873666666666</v>
       </c>
       <c r="N2">
-        <v>20.709838</v>
+        <v>26.939621</v>
       </c>
       <c r="O2">
-        <v>0.3155532251262234</v>
+        <v>0.3651616045144693</v>
       </c>
       <c r="P2">
-        <v>0.3155532251262234</v>
+        <v>0.3651616045144694</v>
       </c>
       <c r="Q2">
-        <v>1.553907468095333</v>
+        <v>2.021342622745666</v>
       </c>
       <c r="R2">
-        <v>13.985167212858</v>
+        <v>18.192083604711</v>
       </c>
       <c r="S2">
-        <v>0.06059215631179987</v>
+        <v>0.07011789852871207</v>
       </c>
       <c r="T2">
-        <v>0.06059215631179987</v>
+        <v>0.07011789852871209</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -617,16 +617,16 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.482718999999999</v>
+        <v>4.482719</v>
       </c>
       <c r="N3">
         <v>13.448157</v>
       </c>
       <c r="O3">
-        <v>0.2049078951440275</v>
+        <v>0.1822872930499836</v>
       </c>
       <c r="P3">
-        <v>0.2049078951440275</v>
+        <v>0.1822872930499837</v>
       </c>
       <c r="Q3">
         <v>1.009046598743</v>
@@ -635,10 +635,10 @@
         <v>9.081419388686999</v>
       </c>
       <c r="S3">
-        <v>0.03934617117959231</v>
+        <v>0.03500258997423123</v>
       </c>
       <c r="T3">
-        <v>0.0393461711795923</v>
+        <v>0.03500258997423124</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.803624666666668</v>
+        <v>9.285498666666667</v>
       </c>
       <c r="N4">
-        <v>26.410874</v>
+        <v>27.856496</v>
       </c>
       <c r="O4">
-        <v>0.4024192014009149</v>
+        <v>0.3775896763919173</v>
       </c>
       <c r="P4">
-        <v>0.4024192014009149</v>
+        <v>0.3775896763919173</v>
       </c>
       <c r="Q4">
-        <v>1.981669501592667</v>
+        <v>2.090137893370667</v>
       </c>
       <c r="R4">
-        <v>17.835025514334</v>
+        <v>18.811241040336</v>
       </c>
       <c r="S4">
-        <v>0.07727205812712061</v>
+        <v>0.07250432216152834</v>
       </c>
       <c r="T4">
-        <v>0.07727205812712061</v>
+        <v>0.07250432216152834</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.687128</v>
+        <v>1.843414333333333</v>
       </c>
       <c r="N5">
-        <v>5.061384</v>
+        <v>5.530243</v>
       </c>
       <c r="O5">
-        <v>0.07711967832883411</v>
+        <v>0.07496142604362967</v>
       </c>
       <c r="P5">
-        <v>0.07711967832883411</v>
+        <v>0.07496142604362969</v>
       </c>
       <c r="Q5">
-        <v>0.379767451416</v>
+        <v>0.4149470361903334</v>
       </c>
       <c r="R5">
-        <v>3.417907062744</v>
+        <v>3.734523325713</v>
       </c>
       <c r="S5">
-        <v>0.01480842923455234</v>
+        <v>0.01439400418859346</v>
       </c>
       <c r="T5">
-        <v>0.01480842923455234</v>
+        <v>0.01439400418859346</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.9471683333333333</v>
+        <v>0.9471683333333334</v>
       </c>
       <c r="H6">
         <v>2.841505</v>
       </c>
       <c r="I6">
-        <v>0.8079811851469348</v>
+        <v>0.807981185146935</v>
       </c>
       <c r="J6">
         <v>0.8079811851469348</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.903279333333334</v>
+        <v>8.979873666666666</v>
       </c>
       <c r="N6">
-        <v>20.709838</v>
+        <v>26.939621</v>
       </c>
       <c r="O6">
-        <v>0.3155532251262234</v>
+        <v>0.3651616045144693</v>
       </c>
       <c r="P6">
-        <v>0.3155532251262234</v>
+        <v>0.3651616045144694</v>
       </c>
       <c r="Q6">
-        <v>6.538567580687777</v>
+        <v>8.505451974400556</v>
       </c>
       <c r="R6">
-        <v>58.84710822619</v>
+        <v>76.549067769605</v>
       </c>
       <c r="S6">
-        <v>0.2549610688144235</v>
+        <v>0.2950437059857573</v>
       </c>
       <c r="T6">
-        <v>0.2549610688144235</v>
+        <v>0.2950437059857574</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.9471683333333333</v>
+        <v>0.9471683333333334</v>
       </c>
       <c r="H7">
         <v>2.841505</v>
       </c>
       <c r="I7">
-        <v>0.8079811851469348</v>
+        <v>0.807981185146935</v>
       </c>
       <c r="J7">
         <v>0.8079811851469348</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.482718999999999</v>
+        <v>4.482719</v>
       </c>
       <c r="N7">
         <v>13.448157</v>
       </c>
       <c r="O7">
-        <v>0.2049078951440275</v>
+        <v>0.1822872930499836</v>
       </c>
       <c r="P7">
-        <v>0.2049078951440275</v>
+        <v>0.1822872930499837</v>
       </c>
       <c r="Q7">
-        <v>4.245889484031666</v>
+        <v>4.245889484031667</v>
       </c>
       <c r="R7">
         <v>38.213005356285</v>
       </c>
       <c r="S7">
-        <v>0.1655617239644352</v>
+        <v>0.1472847030757524</v>
       </c>
       <c r="T7">
-        <v>0.1655617239644352</v>
+        <v>0.1472847030757524</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.9471683333333333</v>
+        <v>0.9471683333333334</v>
       </c>
       <c r="H8">
         <v>2.841505</v>
       </c>
       <c r="I8">
-        <v>0.8079811851469348</v>
+        <v>0.807981185146935</v>
       </c>
       <c r="J8">
         <v>0.8079811851469348</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.803624666666668</v>
+        <v>9.285498666666667</v>
       </c>
       <c r="N8">
-        <v>26.410874</v>
+        <v>27.856496</v>
       </c>
       <c r="O8">
-        <v>0.4024192014009149</v>
+        <v>0.3775896763919173</v>
       </c>
       <c r="P8">
-        <v>0.4024192014009149</v>
+        <v>0.3775896763919173</v>
       </c>
       <c r="Q8">
-        <v>8.338514502818889</v>
+        <v>8.794930296275556</v>
       </c>
       <c r="R8">
-        <v>75.04663052537001</v>
+        <v>79.15437266648</v>
       </c>
       <c r="S8">
-        <v>0.3251471432737943</v>
+        <v>0.305085354230389</v>
       </c>
       <c r="T8">
-        <v>0.3251471432737943</v>
+        <v>0.305085354230389</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.9471683333333333</v>
+        <v>0.9471683333333334</v>
       </c>
       <c r="H9">
         <v>2.841505</v>
       </c>
       <c r="I9">
-        <v>0.8079811851469348</v>
+        <v>0.807981185146935</v>
       </c>
       <c r="J9">
         <v>0.8079811851469348</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.687128</v>
+        <v>1.843414333333333</v>
       </c>
       <c r="N9">
-        <v>5.061384</v>
+        <v>5.530243</v>
       </c>
       <c r="O9">
-        <v>0.07711967832883411</v>
+        <v>0.07496142604362967</v>
       </c>
       <c r="P9">
-        <v>0.07711967832883411</v>
+        <v>0.07496142604362969</v>
       </c>
       <c r="Q9">
-        <v>1.59799421588</v>
+        <v>1.746023681746111</v>
       </c>
       <c r="R9">
-        <v>14.38194794292</v>
+        <v>15.714213135715</v>
       </c>
       <c r="S9">
-        <v>0.06231124909428177</v>
+        <v>0.06056742185503621</v>
       </c>
       <c r="T9">
-        <v>0.06231124909428177</v>
+        <v>0.06056742185503623</v>
       </c>
     </row>
   </sheetData>
